--- a/python/src/input/100knoks/1-2/kokyaku_daicho.xlsx
+++ b/python/src/input/100knoks/1-2/kokyaku_daicho.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\ソフト開発関連\アイキュベータ関連\100本ノック\1-2\コード\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaname/Git/santander_product_recommendation/python/src/input/100knoks/1-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{233AAA0F-CD66-4643-836A-1BDBC76B45C2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC17C6CF-0D3D-C24D-AC77-0B25AA98155B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="14900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2363,7 +2363,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2697,19 +2697,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G168" sqref="G168"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="16.625" customWidth="1"/>
-    <col min="3" max="4" width="22.375" customWidth="1"/>
-    <col min="5" max="5" width="16.25" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="4" width="22.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2726,7 +2726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>611</v>
       </c>
@@ -2743,7 +2743,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>605</v>
       </c>
@@ -2760,7 +2760,7 @@
         <v>42782</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>612</v>
       </c>
@@ -2777,7 +2777,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>606</v>
       </c>
@@ -2794,7 +2794,7 @@
         <v>42872</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -2811,7 +2811,7 @@
         <v>43127</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -2828,7 +2828,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -2845,7 +2845,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -2862,7 +2862,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>607</v>
       </c>
@@ -2879,7 +2879,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -2896,7 +2896,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -2913,7 +2913,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -2930,7 +2930,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
@@ -2947,7 +2947,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
@@ -2964,7 +2964,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>608</v>
       </c>
@@ -2981,7 +2981,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
@@ -2998,7 +2998,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>31</v>
       </c>
@@ -3015,7 +3015,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>33</v>
       </c>
@@ -3032,7 +3032,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>35</v>
       </c>
@@ -3049,7 +3049,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>37</v>
       </c>
@@ -3066,7 +3066,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>39</v>
       </c>
@@ -3083,7 +3083,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>41</v>
       </c>
@@ -3100,7 +3100,7 @@
         <v>42920</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>43</v>
       </c>
@@ -3117,7 +3117,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>45</v>
       </c>
@@ -3134,7 +3134,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>47</v>
       </c>
@@ -3151,7 +3151,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>74</v>
       </c>
@@ -3168,7 +3168,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>76</v>
       </c>
@@ -3185,7 +3185,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>78</v>
       </c>
@@ -3202,7 +3202,7 @@
         <v>42901</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>80</v>
       </c>
@@ -3219,7 +3219,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>82</v>
       </c>
@@ -3236,7 +3236,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>84</v>
       </c>
@@ -3253,7 +3253,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>86</v>
       </c>
@@ -3270,7 +3270,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>88</v>
       </c>
@@ -3287,7 +3287,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>90</v>
       </c>
@@ -3304,7 +3304,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>92</v>
       </c>
@@ -3321,7 +3321,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>94</v>
       </c>
@@ -3338,7 +3338,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>96</v>
       </c>
@@ -3355,7 +3355,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>98</v>
       </c>
@@ -3372,7 +3372,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>100</v>
       </c>
@@ -3389,7 +3389,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>102</v>
       </c>
@@ -3406,7 +3406,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>104</v>
       </c>
@@ -3423,7 +3423,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>106</v>
       </c>
@@ -3440,7 +3440,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>108</v>
       </c>
@@ -3457,7 +3457,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>110</v>
       </c>
@@ -3474,7 +3474,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>112</v>
       </c>
@@ -3491,7 +3491,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>114</v>
       </c>
@@ -3508,7 +3508,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>116</v>
       </c>
@@ -3525,7 +3525,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>118</v>
       </c>
@@ -3542,7 +3542,7 @@
         <v>42741</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>120</v>
       </c>
@@ -3559,7 +3559,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>122</v>
       </c>
@@ -3576,7 +3576,7 @@
         <v>42929</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>609</v>
       </c>
@@ -3593,7 +3593,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>125</v>
       </c>
@@ -3610,7 +3610,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>127</v>
       </c>
@@ -3627,7 +3627,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>129</v>
       </c>
@@ -3644,7 +3644,7 @@
         <v>42833</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>131</v>
       </c>
@@ -3661,7 +3661,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>133</v>
       </c>
@@ -3678,7 +3678,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>135</v>
       </c>
@@ -3695,7 +3695,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>137</v>
       </c>
@@ -3712,7 +3712,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>139</v>
       </c>
@@ -3729,7 +3729,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>610</v>
       </c>
@@ -3746,7 +3746,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>142</v>
       </c>
@@ -3763,7 +3763,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>144</v>
       </c>
@@ -3780,7 +3780,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>146</v>
       </c>
@@ -3797,7 +3797,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>148</v>
       </c>
@@ -3814,7 +3814,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>150</v>
       </c>
@@ -3831,7 +3831,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>152</v>
       </c>
@@ -3848,7 +3848,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>154</v>
       </c>
@@ -3865,7 +3865,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>198</v>
       </c>
@@ -3882,7 +3882,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>200</v>
       </c>
@@ -3899,7 +3899,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>202</v>
       </c>
@@ -3916,7 +3916,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>204</v>
       </c>
@@ -3933,7 +3933,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>206</v>
       </c>
@@ -3950,7 +3950,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>208</v>
       </c>
@@ -3967,7 +3967,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>210</v>
       </c>
@@ -3984,7 +3984,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>212</v>
       </c>
@@ -4001,7 +4001,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>214</v>
       </c>
@@ -4018,7 +4018,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>216</v>
       </c>
@@ -4035,7 +4035,7 @@
         <v>43188</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>218</v>
       </c>
@@ -4052,7 +4052,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>220</v>
       </c>
@@ -4069,7 +4069,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>222</v>
       </c>
@@ -4086,7 +4086,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>224</v>
       </c>
@@ -4103,7 +4103,7 @@
         <v>43110</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>226</v>
       </c>
@@ -4120,7 +4120,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>228</v>
       </c>
@@ -4137,7 +4137,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>230</v>
       </c>
@@ -4154,7 +4154,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>232</v>
       </c>
@@ -4171,7 +4171,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>234</v>
       </c>
@@ -4188,7 +4188,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>236</v>
       </c>
@@ -4205,7 +4205,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>238</v>
       </c>
@@ -4222,7 +4222,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>240</v>
       </c>
@@ -4239,7 +4239,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>264</v>
       </c>
@@ -4256,7 +4256,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>266</v>
       </c>
@@ -4273,7 +4273,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>268</v>
       </c>
@@ -4290,7 +4290,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>270</v>
       </c>
@@ -4307,7 +4307,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>272</v>
       </c>
@@ -4324,7 +4324,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>274</v>
       </c>
@@ -4341,7 +4341,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>276</v>
       </c>
@@ -4358,7 +4358,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>278</v>
       </c>
@@ -4375,7 +4375,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>280</v>
       </c>
@@ -4392,7 +4392,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>282</v>
       </c>
@@ -4409,7 +4409,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>284</v>
       </c>
@@ -4426,7 +4426,7 @@
         <v>42885</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>286</v>
       </c>
@@ -4443,7 +4443,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>288</v>
       </c>
@@ -4460,7 +4460,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>290</v>
       </c>
@@ -4477,7 +4477,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>292</v>
       </c>
@@ -4494,7 +4494,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>294</v>
       </c>
@@ -4511,7 +4511,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>296</v>
       </c>
@@ -4528,7 +4528,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>298</v>
       </c>
@@ -4545,7 +4545,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>300</v>
       </c>
@@ -4562,7 +4562,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>302</v>
       </c>
@@ -4579,7 +4579,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>324</v>
       </c>
@@ -4596,7 +4596,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>326</v>
       </c>
@@ -4613,7 +4613,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>328</v>
       </c>
@@ -4630,7 +4630,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>330</v>
       </c>
@@ -4647,7 +4647,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>332</v>
       </c>
@@ -4664,7 +4664,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>334</v>
       </c>
@@ -4681,7 +4681,7 @@
         <v>43254</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>336</v>
       </c>
@@ -4698,7 +4698,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>338</v>
       </c>
@@ -4715,7 +4715,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>340</v>
       </c>
@@ -4732,7 +4732,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>342</v>
       </c>
@@ -4749,7 +4749,7 @@
         <v>43129</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>344</v>
       </c>
@@ -4766,7 +4766,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>346</v>
       </c>
@@ -4783,7 +4783,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>348</v>
       </c>
@@ -4800,7 +4800,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>350</v>
       </c>
@@ -4817,7 +4817,7 @@
         <v>43206</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>352</v>
       </c>
@@ -4834,7 +4834,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>354</v>
       </c>
@@ -4851,7 +4851,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>356</v>
       </c>
@@ -4868,7 +4868,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>358</v>
       </c>
@@ -4885,7 +4885,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>360</v>
       </c>
@@ -4902,7 +4902,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>362</v>
       </c>
@@ -4919,7 +4919,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>364</v>
       </c>
@@ -4936,7 +4936,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>366</v>
       </c>
@@ -4953,7 +4953,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>368</v>
       </c>
@@ -4970,7 +4970,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>370</v>
       </c>
@@ -4987,7 +4987,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>372</v>
       </c>
@@ -5004,7 +5004,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>374</v>
       </c>
@@ -5021,7 +5021,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>376</v>
       </c>
@@ -5038,7 +5038,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>378</v>
       </c>
@@ -5055,7 +5055,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>380</v>
       </c>
@@ -5072,7 +5072,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>382</v>
       </c>
@@ -5089,7 +5089,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>384</v>
       </c>
@@ -5106,7 +5106,7 @@
         <v>42880</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>386</v>
       </c>
@@ -5123,7 +5123,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>388</v>
       </c>
@@ -5140,7 +5140,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>390</v>
       </c>
@@ -5157,7 +5157,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>392</v>
       </c>
@@ -5174,7 +5174,7 @@
         <v>42818</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>394</v>
       </c>
@@ -5191,7 +5191,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>396</v>
       </c>
@@ -5208,7 +5208,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>398</v>
       </c>
@@ -5225,7 +5225,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>400</v>
       </c>
@@ -5242,7 +5242,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>402</v>
       </c>
@@ -5259,7 +5259,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>404</v>
       </c>
@@ -5276,7 +5276,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>406</v>
       </c>
@@ -5293,7 +5293,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>408</v>
       </c>
@@ -5310,7 +5310,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>410</v>
       </c>
@@ -5327,7 +5327,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>412</v>
       </c>
@@ -5344,7 +5344,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>414</v>
       </c>
@@ -5361,7 +5361,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>416</v>
       </c>
@@ -5378,7 +5378,7 @@
         <v>42754</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>418</v>
       </c>
@@ -5395,7 +5395,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>420</v>
       </c>
@@ -5412,7 +5412,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>422</v>
       </c>
@@ -5429,7 +5429,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>424</v>
       </c>
@@ -5446,7 +5446,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>426</v>
       </c>
@@ -5463,7 +5463,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>428</v>
       </c>
@@ -5480,7 +5480,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>430</v>
       </c>
@@ -5497,7 +5497,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>432</v>
       </c>
@@ -5514,7 +5514,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>434</v>
       </c>
@@ -5531,7 +5531,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>436</v>
       </c>
@@ -5548,7 +5548,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>438</v>
       </c>
@@ -5565,7 +5565,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>440</v>
       </c>
@@ -5582,7 +5582,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>442</v>
       </c>
@@ -5599,7 +5599,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>444</v>
       </c>
@@ -5616,7 +5616,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>602</v>
       </c>
@@ -5633,7 +5633,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>603</v>
       </c>
@@ -5650,7 +5650,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>448</v>
       </c>
@@ -5667,7 +5667,7 @@
         <v>43181</v>
       </c>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>604</v>
       </c>
@@ -5684,7 +5684,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>451</v>
       </c>
@@ -5701,7 +5701,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>453</v>
       </c>
@@ -5718,7 +5718,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>455</v>
       </c>
@@ -5735,7 +5735,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>457</v>
       </c>
@@ -5752,7 +5752,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>459</v>
       </c>
@@ -5769,7 +5769,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>461</v>
       </c>
@@ -5786,7 +5786,7 @@
         <v>42743</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>463</v>
       </c>
@@ -5803,7 +5803,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>465</v>
       </c>
@@ -5820,7 +5820,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>467</v>
       </c>
@@ -5837,7 +5837,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>469</v>
       </c>
@@ -5854,7 +5854,7 @@
         <v>42940</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>471</v>
       </c>
@@ -5871,7 +5871,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>473</v>
       </c>
@@ -5888,7 +5888,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>475</v>
       </c>
@@ -5905,7 +5905,7 @@
         <v>43294</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>477</v>
       </c>
@@ -5922,7 +5922,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>479</v>
       </c>
@@ -5939,7 +5939,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>481</v>
       </c>
@@ -5956,7 +5956,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>483</v>
       </c>
@@ -5973,7 +5973,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>485</v>
       </c>
@@ -5990,7 +5990,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>487</v>
       </c>
@@ -6007,7 +6007,7 @@
         <v>43259</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>489</v>
       </c>
@@ -6024,7 +6024,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>491</v>
       </c>
@@ -6041,7 +6041,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>493</v>
       </c>
@@ -6058,7 +6058,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>495</v>
       </c>
@@ -6075,7 +6075,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>585</v>
       </c>
@@ -6092,7 +6092,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>587</v>
       </c>
@@ -6109,7 +6109,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>591</v>
       </c>
